--- a/learn_python_the_hard_way/list.xlsx
+++ b/learn_python_the_hard_way/list.xlsx
@@ -15,7 +15,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="77">
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -329,6 +328,10 @@
   </si>
   <si>
     <t>f.seek()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -663,7 +666,7 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -673,7 +676,7 @@
     <col min="4" max="4" width="13.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -683,8 +686,11 @@
       <c r="C1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -695,7 +701,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -706,7 +712,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -717,7 +723,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -725,7 +731,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -733,7 +739,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -744,7 +750,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -752,7 +758,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -760,7 +766,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -768,7 +774,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -776,7 +782,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -784,7 +790,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -795,7 +801,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -806,7 +812,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -817,7 +823,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>8</v>
       </c>
